--- a/CodingAssessment/src/main/java/com/qa/testdata/KayakAssessment.xlsx
+++ b/CodingAssessment/src/main/java/com/qa/testdata/KayakAssessment.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\selenium-practice\CodingAssessment\src\main\java\com\qa\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D499A-ED77-4B2C-957D-0714B2210584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BCDD6631-BACD-464D-8422-DDDE245ED6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C426E73-CEBD-415C-95AC-79F725AED4D1}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" xr2:uid="{0C426E73-CEBD-415C-95AC-79F725AED4D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Deals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -417,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0D4CA1-E423-46A0-A7ED-5BB3850C8D3D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/CodingAssessment/src/main/java/com/qa/testdata/KayakAssessment.xlsx
+++ b/CodingAssessment/src/main/java/com/qa/testdata/KayakAssessment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BCDD6631-BACD-464D-8422-DDDE245ED6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{003C7BC0-4236-46B2-87A8-9B2D76079FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" xr2:uid="{0C426E73-CEBD-415C-95AC-79F725AED4D1}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" xr2:uid="{0C426E73-CEBD-415C-95AC-79F725AED4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
